--- a/res/output/운수좋은날.xlsx
+++ b/res/output/운수좋은날.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,40 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>단어</t>
+          <t>감정 단어</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>화자</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>기쁨</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>슬픔</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>분노</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>공포</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>혐오</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>놀람</t>
         </is>
@@ -456,9 +461,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -472,6 +475,9 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,9 +504,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -514,6 +518,9 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -540,9 +547,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0</v>
       </c>
@@ -556,6 +561,9 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,9 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -598,6 +604,9 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -624,9 +633,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -640,6 +647,9 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -666,9 +676,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -682,6 +690,9 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -708,9 +719,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -724,6 +733,9 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -750,9 +762,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -766,6 +776,9 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,9 +805,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -808,6 +819,9 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -834,9 +848,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -850,6 +862,9 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,9 +891,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>0</v>
       </c>
@@ -892,6 +905,9 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -918,9 +934,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>0</v>
       </c>
@@ -934,6 +948,9 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -960,9 +977,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>0</v>
       </c>
@@ -976,6 +991,9 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1002,9 +1020,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>0</v>
       </c>
@@ -1018,6 +1034,9 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,9 +1067,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>0</v>
       </c>
@@ -1064,6 +1081,9 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,9 +1110,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1106,6 +1124,9 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1132,9 +1153,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>0</v>
       </c>
@@ -1148,6 +1167,9 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,9 +1196,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1190,6 +1210,9 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1216,9 +1239,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>0</v>
       </c>
@@ -1232,6 +1253,9 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,9 +1282,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1274,6 +1296,9 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,9 +1329,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>0</v>
       </c>
@@ -1320,6 +1343,9 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1346,9 +1372,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>0</v>
       </c>
@@ -1362,6 +1386,9 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,9 +1415,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>0</v>
       </c>
@@ -1404,6 +1429,9 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1430,9 +1458,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -1446,6 +1472,9 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1472,9 +1501,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>0</v>
       </c>
@@ -1488,6 +1515,9 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1514,9 +1544,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>0</v>
       </c>
@@ -1530,6 +1558,9 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1556,9 +1587,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>0</v>
       </c>
@@ -1572,6 +1601,9 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1598,9 +1630,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -1614,6 +1644,9 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1640,9 +1673,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>0</v>
       </c>
@@ -1656,6 +1687,9 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,9 +1716,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>0</v>
       </c>
@@ -1698,6 +1730,9 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1728,9 +1763,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -1744,6 +1777,9 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1770,9 +1806,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>0</v>
       </c>
@@ -1786,6 +1820,9 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,9 +1849,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>0</v>
       </c>
@@ -1828,6 +1863,9 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1854,9 +1892,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>0</v>
       </c>
@@ -1870,6 +1906,9 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1896,9 +1935,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>0</v>
       </c>
@@ -1912,6 +1949,9 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,9 +1982,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>0</v>
       </c>
@@ -1958,6 +1996,9 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1984,9 +2025,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>0</v>
       </c>
@@ -2000,6 +2039,9 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,9 +2068,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>0</v>
       </c>
@@ -2042,6 +2082,9 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2068,9 +2111,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>0</v>
       </c>
@@ -2084,6 +2125,9 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,9 +2154,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -2126,6 +2168,9 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2152,9 +2197,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>0</v>
       </c>
@@ -2168,6 +2211,9 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2194,9 +2240,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>0</v>
       </c>
@@ -2210,6 +2254,9 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,9 +2287,7 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>0</v>
       </c>
@@ -2256,6 +2301,9 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2282,9 +2330,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>0</v>
       </c>
@@ -2298,6 +2344,9 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2328,9 +2377,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>0</v>
       </c>
@@ -2344,6 +2391,9 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2374,9 +2424,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>0</v>
       </c>
@@ -2390,6 +2438,9 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2416,9 +2467,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>0</v>
       </c>
@@ -2432,6 +2481,9 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2458,9 +2510,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>0</v>
       </c>
@@ -2474,6 +2524,9 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2504,9 +2557,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>0</v>
       </c>
@@ -2520,6 +2571,9 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2550,9 +2604,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>0</v>
       </c>
@@ -2566,6 +2618,9 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,9 +2647,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>0</v>
       </c>
@@ -2608,6 +2661,9 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2638,9 +2694,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>0</v>
       </c>
@@ -2654,6 +2708,9 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2680,9 +2737,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>0</v>
       </c>
@@ -2696,6 +2751,9 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,9 +2780,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>0</v>
       </c>
@@ -2738,6 +2794,9 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2764,9 +2823,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>0</v>
       </c>
@@ -2780,6 +2837,9 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2806,9 +2866,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>0</v>
       </c>
@@ -2822,6 +2880,9 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2848,9 +2909,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>0</v>
       </c>
@@ -2864,6 +2923,9 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,9 +2952,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>0</v>
       </c>
@@ -2906,6 +2966,9 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2936,9 +2999,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>0</v>
       </c>
@@ -2952,6 +3013,9 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2978,9 +3042,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>0</v>
       </c>
@@ -2994,6 +3056,9 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3024,9 +3089,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>0</v>
       </c>
@@ -3040,6 +3103,9 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3066,9 +3132,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>0</v>
       </c>
@@ -3082,6 +3146,9 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,9 +3179,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>0</v>
       </c>
@@ -3128,6 +3193,9 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3154,9 +3222,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>0</v>
       </c>
@@ -3170,6 +3236,9 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3196,9 +3265,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>0</v>
       </c>
@@ -3212,6 +3279,9 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3238,9 +3308,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>0</v>
       </c>
@@ -3254,6 +3322,9 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,9 +3351,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>0</v>
       </c>
@@ -3296,6 +3365,9 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3322,9 +3394,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>0</v>
       </c>
@@ -3338,6 +3408,9 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3364,9 +3437,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>0</v>
       </c>
@@ -3380,6 +3451,9 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3406,9 +3480,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>0</v>
       </c>
@@ -3422,6 +3494,9 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3448,9 +3523,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>0</v>
       </c>
@@ -3464,6 +3537,9 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3490,9 +3566,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>0</v>
       </c>
@@ -3506,6 +3580,9 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3532,9 +3609,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>0</v>
       </c>
@@ -3548,6 +3623,9 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3574,9 +3652,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>0</v>
       </c>
@@ -3590,6 +3666,9 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3616,9 +3695,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>0</v>
       </c>
@@ -3632,6 +3709,9 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,9 +3738,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>0</v>
       </c>
@@ -3674,6 +3752,9 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3700,9 +3781,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>0</v>
       </c>
@@ -3716,6 +3795,9 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3746,9 +3828,7 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>0</v>
       </c>
@@ -3762,6 +3842,9 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,9 +3871,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>0</v>
       </c>
@@ -3804,6 +3885,9 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3830,9 +3914,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>0</v>
       </c>
@@ -3846,6 +3928,9 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3876,9 +3961,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>0</v>
       </c>
@@ -3892,6 +3975,9 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,9 +4004,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>0</v>
       </c>
@@ -3934,6 +4018,9 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3960,9 +4047,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>0</v>
       </c>
@@ -3976,6 +4061,9 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4002,9 +4090,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>0</v>
       </c>
@@ -4018,6 +4104,9 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4044,9 +4133,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>0</v>
       </c>
@@ -4060,6 +4147,9 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,9 +4176,7 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>0</v>
       </c>
@@ -4102,6 +4190,9 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4132,9 +4223,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>0</v>
       </c>
@@ -4148,6 +4237,9 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4174,9 +4266,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>0</v>
       </c>
@@ -4190,6 +4280,9 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,9 +4309,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>0</v>
       </c>
@@ -4232,6 +4323,9 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4258,9 +4352,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>0</v>
       </c>
@@ -4274,6 +4366,9 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4300,9 +4395,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>0</v>
       </c>
@@ -4316,6 +4409,9 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4342,9 +4438,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>0</v>
       </c>
@@ -4358,6 +4452,9 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4388,9 +4485,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>0</v>
       </c>
@@ -4404,6 +4499,9 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4430,9 +4528,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>0</v>
       </c>
@@ -4446,6 +4542,9 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4472,9 +4571,7 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>0</v>
       </c>
@@ -4488,6 +4585,9 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4514,9 +4614,7 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>0</v>
       </c>
@@ -4530,6 +4628,9 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4556,9 +4657,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>0</v>
       </c>
@@ -4572,6 +4671,9 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4598,9 +4700,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>0</v>
       </c>
@@ -4614,6 +4714,9 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4640,9 +4743,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>0</v>
       </c>
@@ -4656,6 +4757,9 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4682,9 +4786,7 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>0</v>
       </c>
@@ -4698,6 +4800,9 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,9 +4829,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>0</v>
       </c>
@@ -4740,6 +4843,9 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4766,9 +4872,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>0</v>
       </c>
@@ -4782,6 +4886,9 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4812,9 +4919,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>0</v>
       </c>
@@ -4828,6 +4933,9 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,9 +4962,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>0</v>
       </c>
@@ -4870,6 +4976,9 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4900,9 +5009,7 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>0</v>
       </c>
@@ -4916,6 +5023,9 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4942,9 +5052,7 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>0</v>
       </c>
@@ -4958,6 +5066,9 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4988,9 +5099,7 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>0</v>
       </c>
@@ -5004,6 +5113,9 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5030,9 +5142,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>0</v>
       </c>
@@ -5046,6 +5156,9 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5072,9 +5185,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>0</v>
       </c>
@@ -5088,6 +5199,9 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,9 +5228,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>0</v>
       </c>
@@ -5130,6 +5242,9 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5156,9 +5271,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>0</v>
       </c>
@@ -5172,6 +5285,9 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5198,9 +5314,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>0</v>
       </c>
@@ -5214,6 +5328,9 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5240,9 +5357,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>0</v>
       </c>
@@ -5256,6 +5371,9 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,9 +5400,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>0</v>
       </c>
@@ -5298,6 +5414,9 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5324,9 +5443,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>0</v>
       </c>
@@ -5340,6 +5457,9 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5370,9 +5490,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>0</v>
       </c>
@@ -5386,6 +5504,9 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,9 +5533,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>0</v>
       </c>
@@ -5428,6 +5547,9 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5454,9 +5576,7 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>0</v>
       </c>
@@ -5470,6 +5590,9 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5496,9 +5619,7 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>0</v>
       </c>
@@ -5512,6 +5633,9 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5538,9 +5662,7 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>0</v>
       </c>
@@ -5554,6 +5676,9 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5580,9 +5705,7 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>0</v>
       </c>
@@ -5596,6 +5719,9 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5622,9 +5748,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>0</v>
       </c>
@@ -5638,6 +5762,9 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5664,9 +5791,7 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>0</v>
       </c>
@@ -5680,6 +5805,9 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5706,9 +5834,7 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>0</v>
       </c>
@@ -5722,6 +5848,9 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5748,9 +5877,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>0</v>
       </c>
@@ -5764,6 +5891,9 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,9 +5920,7 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>0</v>
       </c>
@@ -5806,6 +5934,9 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5832,9 +5963,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>0</v>
       </c>
@@ -5848,6 +5977,9 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5874,9 +6006,7 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>0</v>
       </c>
@@ -5890,6 +6020,9 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5916,9 +6049,7 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>0</v>
       </c>
@@ -5932,6 +6063,9 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,9 +6092,7 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>0</v>
       </c>
@@ -5974,6 +6106,9 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6000,9 +6135,7 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>0</v>
       </c>
@@ -6016,6 +6149,9 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6046,9 +6182,7 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>0</v>
       </c>
@@ -6062,6 +6196,9 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,9 +6225,7 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>0</v>
       </c>
@@ -6104,6 +6239,9 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6130,9 +6268,7 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>0</v>
       </c>
@@ -6146,6 +6282,9 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6172,9 +6311,7 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>0</v>
       </c>
@@ -6188,6 +6325,9 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6214,9 +6354,7 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>0</v>
       </c>
@@ -6230,6 +6368,9 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6260,9 +6401,7 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>0</v>
       </c>
@@ -6276,6 +6415,9 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6302,9 +6444,7 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>0</v>
       </c>
@@ -6318,6 +6458,9 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,9 +6491,7 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>0</v>
       </c>
@@ -6364,6 +6505,9 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6390,9 +6534,7 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>0</v>
       </c>
@@ -6406,6 +6548,9 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6432,9 +6577,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>0</v>
       </c>
@@ -6448,6 +6591,9 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6474,9 +6620,7 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>0</v>
       </c>
@@ -6490,6 +6634,9 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6516,9 +6663,7 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>0</v>
       </c>
@@ -6532,6 +6677,9 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6558,9 +6706,7 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>0</v>
       </c>
@@ -6574,6 +6720,9 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6600,9 +6749,7 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>0</v>
       </c>
@@ -6616,6 +6763,9 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6642,9 +6792,7 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>0</v>
       </c>
@@ -6658,6 +6806,9 @@
         <v>0</v>
       </c>
       <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6684,9 +6835,7 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>0</v>
       </c>
@@ -6700,6 +6849,9 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,9 +6878,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>0</v>
       </c>
@@ -6742,6 +6892,9 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6768,9 +6921,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>0</v>
       </c>
@@ -6784,6 +6935,9 @@
         <v>0</v>
       </c>
       <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6810,9 +6964,7 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>0</v>
       </c>
@@ -6826,6 +6978,9 @@
         <v>0</v>
       </c>
       <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,9 +7011,7 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>0</v>
       </c>
@@ -6872,6 +7025,9 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6898,9 +7054,7 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>0</v>
       </c>
@@ -6914,6 +7068,9 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6944,9 +7101,7 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>0</v>
       </c>
@@ -6960,6 +7115,9 @@
         <v>0</v>
       </c>
       <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6990,9 +7148,7 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>0</v>
       </c>
@@ -7006,6 +7162,9 @@
         <v>0</v>
       </c>
       <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7036,9 +7195,7 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>0</v>
       </c>
@@ -7052,6 +7209,9 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7082,9 +7242,7 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>0</v>
       </c>
@@ -7098,6 +7256,9 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7128,9 +7289,7 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>0</v>
       </c>
@@ -7144,6 +7303,9 @@
         <v>0</v>
       </c>
       <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7170,9 +7332,7 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>0</v>
       </c>
@@ -7186,6 +7346,9 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7216,9 +7379,7 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>0</v>
       </c>
@@ -7232,6 +7393,9 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,9 +7422,7 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>0</v>
       </c>
@@ -7274,6 +7436,9 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7300,9 +7465,7 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>0</v>
       </c>
@@ -7316,6 +7479,9 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7346,9 +7512,7 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>0</v>
       </c>
@@ -7362,6 +7526,9 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7388,9 +7555,7 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>0</v>
       </c>
@@ -7404,6 +7569,9 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7430,9 +7598,7 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>0</v>
       </c>
@@ -7446,6 +7612,9 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7476,9 +7645,7 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>0</v>
       </c>
@@ -7492,6 +7659,9 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7518,9 +7688,7 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>0</v>
       </c>
@@ -7534,6 +7702,9 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7564,9 +7735,7 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>0</v>
       </c>
@@ -7580,6 +7749,9 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,9 +7782,7 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>0</v>
       </c>
@@ -7626,6 +7796,9 @@
         <v>0</v>
       </c>
       <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7652,9 +7825,7 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>0</v>
       </c>
@@ -7668,6 +7839,9 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7694,9 +7868,7 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>0</v>
       </c>
@@ -7710,6 +7882,9 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7736,9 +7911,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>0</v>
       </c>
@@ -7752,6 +7925,9 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7782,9 +7958,7 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>0</v>
       </c>
@@ -7798,6 +7972,9 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7824,9 +8001,7 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>0</v>
       </c>
@@ -7840,6 +8015,9 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7866,9 +8044,7 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>0</v>
       </c>
@@ -7882,6 +8058,9 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7908,9 +8087,7 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>0</v>
       </c>
@@ -7924,6 +8101,9 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7954,9 +8134,7 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>0</v>
       </c>
@@ -7970,6 +8148,9 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8000,9 +8181,7 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>0</v>
       </c>
@@ -8016,6 +8195,9 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8046,9 +8228,7 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>0</v>
       </c>
@@ -8062,6 +8242,9 @@
         <v>0</v>
       </c>
       <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8088,9 +8271,7 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>0</v>
       </c>
@@ -8104,6 +8285,9 @@
         <v>0</v>
       </c>
       <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8130,9 +8314,7 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>0</v>
       </c>
@@ -8146,6 +8328,9 @@
         <v>0</v>
       </c>
       <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8176,9 +8361,7 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>0</v>
       </c>
@@ -8192,6 +8375,9 @@
         <v>0</v>
       </c>
       <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8218,9 +8404,7 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>0</v>
       </c>
@@ -8234,6 +8418,9 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8260,9 +8447,7 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>0</v>
       </c>
@@ -8276,6 +8461,9 @@
         <v>0</v>
       </c>
       <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8306,9 +8494,7 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>0</v>
       </c>
@@ -8322,6 +8508,9 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8352,9 +8541,7 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>0</v>
       </c>
@@ -8368,6 +8555,9 @@
         <v>0</v>
       </c>
       <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8398,9 +8588,7 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>0</v>
       </c>
@@ -8414,6 +8602,9 @@
         <v>0</v>
       </c>
       <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8444,9 +8635,7 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>0</v>
       </c>
@@ -8460,6 +8649,9 @@
         <v>0</v>
       </c>
       <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8490,9 +8682,7 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>0</v>
       </c>
@@ -8506,6 +8696,9 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8536,9 +8729,7 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>0</v>
       </c>
@@ -8552,6 +8743,9 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8578,9 +8772,7 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>0</v>
       </c>
@@ -8594,6 +8786,9 @@
         <v>0</v>
       </c>
       <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8624,9 +8819,7 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>0</v>
       </c>
@@ -8640,6 +8833,9 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8666,9 +8862,7 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>0</v>
       </c>
@@ -8682,6 +8876,9 @@
         <v>0</v>
       </c>
       <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8708,9 +8905,7 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>0</v>
       </c>
@@ -8724,6 +8919,9 @@
         <v>0</v>
       </c>
       <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8754,9 +8952,7 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>0</v>
       </c>
@@ -8770,6 +8966,9 @@
         <v>0</v>
       </c>
       <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8796,9 +8995,7 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>0</v>
       </c>
@@ -8812,6 +9009,9 @@
         <v>0</v>
       </c>
       <c r="N196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8842,9 +9042,7 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>0</v>
       </c>
@@ -8858,6 +9056,9 @@
         <v>0</v>
       </c>
       <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8884,9 +9085,7 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>0</v>
       </c>
@@ -8900,6 +9099,9 @@
         <v>0</v>
       </c>
       <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8930,9 +9132,7 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>0</v>
       </c>
@@ -8946,6 +9146,9 @@
         <v>0</v>
       </c>
       <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8972,9 +9175,7 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>0</v>
       </c>
@@ -8988,6 +9189,9 @@
         <v>0</v>
       </c>
       <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9018,9 +9222,7 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>0</v>
       </c>
@@ -9034,6 +9236,9 @@
         <v>0</v>
       </c>
       <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9060,9 +9265,7 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>0</v>
       </c>
@@ -9076,6 +9279,9 @@
         <v>0</v>
       </c>
       <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9102,9 +9308,7 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>0</v>
       </c>
@@ -9118,6 +9322,9 @@
         <v>0</v>
       </c>
       <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9144,9 +9351,7 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>0</v>
       </c>
@@ -9160,6 +9365,9 @@
         <v>0</v>
       </c>
       <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9186,9 +9394,7 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>0</v>
       </c>
@@ -9202,6 +9408,9 @@
         <v>0</v>
       </c>
       <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9228,9 +9437,7 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>0</v>
       </c>
@@ -9244,6 +9451,9 @@
         <v>0</v>
       </c>
       <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9270,9 +9480,7 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>0</v>
       </c>
@@ -9286,6 +9494,9 @@
         <v>0</v>
       </c>
       <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9312,9 +9523,7 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>0</v>
       </c>
@@ -9328,6 +9537,9 @@
         <v>0</v>
       </c>
       <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9354,9 +9566,7 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>0</v>
       </c>
@@ -9370,6 +9580,9 @@
         <v>0</v>
       </c>
       <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9396,9 +9609,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>0</v>
       </c>
@@ -9412,6 +9623,9 @@
         <v>0</v>
       </c>
       <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9438,9 +9652,7 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>0</v>
       </c>
@@ -9454,6 +9666,9 @@
         <v>0</v>
       </c>
       <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9480,9 +9695,7 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>0</v>
       </c>
@@ -9496,6 +9709,9 @@
         <v>0</v>
       </c>
       <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9526,9 +9742,7 @@
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
         <v>0</v>
       </c>
@@ -9542,6 +9756,9 @@
         <v>0</v>
       </c>
       <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9568,9 +9785,7 @@
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
         <v>0</v>
       </c>
@@ -9584,6 +9799,9 @@
         <v>0</v>
       </c>
       <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9610,9 +9828,7 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>0</v>
       </c>
@@ -9626,6 +9842,9 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9652,9 +9871,7 @@
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>0</v>
       </c>
@@ -9668,6 +9885,9 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9694,9 +9914,7 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
         <v>0</v>
       </c>
@@ -9710,6 +9928,9 @@
         <v>0</v>
       </c>
       <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9736,9 +9957,7 @@
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>0</v>
       </c>
@@ -9752,6 +9971,9 @@
         <v>0</v>
       </c>
       <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9782,9 +10004,7 @@
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>0</v>
       </c>
@@ -9798,6 +10018,9 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9824,9 +10047,7 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>0</v>
       </c>
@@ -9840,6 +10061,9 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9866,9 +10090,7 @@
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>0</v>
       </c>
@@ -9882,6 +10104,9 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9908,9 +10133,7 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>0</v>
       </c>
@@ -9924,6 +10147,9 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9950,9 +10176,7 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>0</v>
       </c>
@@ -9966,6 +10190,9 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9992,9 +10219,7 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>0</v>
       </c>
@@ -10008,6 +10233,9 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10034,9 +10262,7 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>0</v>
       </c>
@@ -10050,6 +10276,9 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10076,9 +10305,7 @@
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>0</v>
       </c>
@@ -10092,6 +10319,9 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10122,9 +10352,7 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>0</v>
       </c>
@@ -10138,6 +10366,9 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10168,9 +10399,7 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>0</v>
       </c>
@@ -10184,6 +10413,9 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10214,9 +10446,7 @@
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>0</v>
       </c>
@@ -10230,6 +10460,9 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10260,9 +10493,7 @@
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>0</v>
       </c>
@@ -10276,6 +10507,9 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10306,9 +10540,7 @@
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
         <v>0</v>
       </c>
@@ -10322,6 +10554,9 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10352,9 +10587,7 @@
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>0</v>
       </c>
@@ -10368,6 +10601,9 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10398,9 +10634,7 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>0</v>
       </c>
@@ -10414,6 +10648,9 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10444,9 +10681,7 @@
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>0</v>
       </c>
@@ -10460,6 +10695,9 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10486,9 +10724,7 @@
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>0</v>
       </c>
@@ -10502,6 +10738,9 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10528,9 +10767,7 @@
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>0</v>
       </c>
@@ -10544,6 +10781,9 @@
         <v>0</v>
       </c>
       <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10570,9 +10810,7 @@
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>0</v>
       </c>
@@ -10586,6 +10824,9 @@
         <v>0</v>
       </c>
       <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10616,9 +10857,7 @@
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>0</v>
       </c>
@@ -10632,6 +10871,9 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
         <v>0</v>
       </c>
     </row>
